--- a/biology/Zoologie/Brochiraja/Brochiraja.xlsx
+++ b/biology/Zoologie/Brochiraja/Brochiraja.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brochiraja est un genre de raies de la famille des Arhynchobatidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre est réparti dans les eaux bordant les côtes de Nouvelle-Zélande[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre est réparti dans les eaux bordant les côtes de Nouvelle-Zélande.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon le World Register of Marine Species                               (31 juillet 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon le World Register of Marine Species                               (31 juillet 2023) :
 Brochiraja aenigma Last &amp; McEachran, 2006
 Brochiraja albilabiata Last &amp; McEachran, 2006
 Brochiraja asperula (Garrick &amp; Paul, 1974)
@@ -580,9 +596,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brochiraja Last &amp; McEachran, 2006[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Brochiraja Last &amp; McEachran, 2006.
 </t>
         </is>
       </c>
@@ -611,9 +629,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, Brochiraja, est la combinaison du latin brochus, « projeté », et Raja, le genre initial donné aux raies, et fait référence aux épines saillantes présentes sur la mâchoire inférieure de ces espèces[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, Brochiraja, est la combinaison du latin brochus, « projeté », et Raja, le genre initial donné aux raies, et fait référence aux épines saillantes présentes sur la mâchoire inférieure de ces espèces.
 </t>
         </is>
       </c>
@@ -642,7 +662,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>(en) Peter R. Last et John D. McEachran, « New softnose skate genus Brochiraja from New Zealand (Rajidae: Arhynchobatinae) with description of four new species », New Zealand Journal of Marine and Freshwater Research, vol. 40, no 1,‎ mars 2006, p. 65–90 (ISSN 0028-8330 et 1175-8805, DOI 10.1080/00288330.2006.9517404, lire en ligne, consulté le 31 juillet 2023)</t>
         </is>
